--- a/process/data/mahjong/mahjong.xlsx
+++ b/process/data/mahjong/mahjong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\myproject\guess-game\process\data\mahjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AD40E-D3CA-46A0-9572-3F2791C4AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF094875-B1E6-4FD0-B80F-7916E8230589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13212" yWindow="1428" windowWidth="19200" windowHeight="13776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>label</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,9 +143,6 @@
     <t>https://i.postimg.cc/KzDL2cHW/5s.png</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/fyWdTn4R/5zjp.png</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/rshrDncC/6mjp.png</t>
   </si>
   <si>
@@ -333,6 +326,33 @@
   <si>
     <t>pic_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mahjong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场自风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jifuu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场场风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bafuu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PxS0Z04N/cover.png</t>
   </si>
 </sst>
 </file>
@@ -404,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,6 +432,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -723,18 +746,40 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -745,309 +790,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B92EA-DE7E-49C8-88F9-2509DF022491}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{80456056-C655-42BC-8C1E-3482681E8DE1}"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{80456056-C655-42BC-8C1E-3482681E8DE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,13 +1104,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1095,38 +1134,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B023BC72-C5E0-4554-ADF7-9624E1416CF0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
